--- a/simple/sendingCommercialOffer.xlsx
+++ b/simple/sendingCommercialOffer.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Ответ клиента</t>
   </si>
   <si>
-    <t xml:space="preserve">Тогда коротко о нас и цели звонка. %Действие%. Хочу подобрать для вас наше решение, а позже созвониться и обсудить его. Могу перед этим задать несколько вопросов?</t>
+    <t xml:space="preserve">Тогда коротко о нас и цели звонка. %Деятельность%. Хочу подобрать для вас наше решение, а позже созвониться и обсудить его. Могу перед этим задать несколько вопросов?</t>
   </si>
   <si>
     <t xml:space="preserve">%Потребность%</t>
@@ -150,7 +150,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
